--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>94.30541167171241</v>
+        <v>0.6849806666666667</v>
       </c>
       <c r="H2">
-        <v>94.30541167171241</v>
+        <v>2.054942</v>
       </c>
       <c r="I2">
-        <v>0.7984025201610155</v>
+        <v>0.005384415753505337</v>
       </c>
       <c r="J2">
-        <v>0.7984025201610155</v>
+        <v>0.005384415753505337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N2">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P2">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q2">
-        <v>3570.322825933105</v>
+        <v>31.46206345455733</v>
       </c>
       <c r="R2">
-        <v>3570.322825933105</v>
+        <v>283.158571091016</v>
       </c>
       <c r="S2">
-        <v>0.7960774499304102</v>
+        <v>0.005316688964761796</v>
       </c>
       <c r="T2">
-        <v>0.7960774499304102</v>
+        <v>0.005316688964761795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>94.30541167171241</v>
+        <v>0.6849806666666667</v>
       </c>
       <c r="H3">
-        <v>94.30541167171241</v>
+        <v>2.054942</v>
       </c>
       <c r="I3">
-        <v>0.7984025201610155</v>
+        <v>0.005384415753505337</v>
       </c>
       <c r="J3">
-        <v>0.7984025201610155</v>
+        <v>0.005384415753505337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N3">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P3">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q3">
-        <v>10.42769308055801</v>
+        <v>0.4007803614515556</v>
       </c>
       <c r="R3">
-        <v>10.42769308055801</v>
+        <v>3.607023253064</v>
       </c>
       <c r="S3">
-        <v>0.002325070230605287</v>
+        <v>6.772678874354236E-05</v>
       </c>
       <c r="T3">
-        <v>0.002325070230605287</v>
+        <v>6.772678874354236E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.0857774224443</v>
+        <v>97.08941133333333</v>
       </c>
       <c r="H4">
-        <v>18.0857774224443</v>
+        <v>291.268234</v>
       </c>
       <c r="I4">
-        <v>0.1531166665537395</v>
+        <v>0.7631890669640694</v>
       </c>
       <c r="J4">
-        <v>0.1531166665537395</v>
+        <v>0.7631890669640695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N4">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P4">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q4">
-        <v>684.712179412153</v>
+        <v>4459.444432205315</v>
       </c>
       <c r="R4">
-        <v>684.712179412153</v>
+        <v>40134.99988984783</v>
       </c>
       <c r="S4">
-        <v>0.1526707674060993</v>
+        <v>0.7535894470469027</v>
       </c>
       <c r="T4">
-        <v>0.1526707674060993</v>
+        <v>0.7535894470469027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0857774224443</v>
+        <v>97.08941133333333</v>
       </c>
       <c r="H5">
-        <v>18.0857774224443</v>
+        <v>291.268234</v>
       </c>
       <c r="I5">
-        <v>0.1531166665537395</v>
+        <v>0.7631890669640694</v>
       </c>
       <c r="J5">
-        <v>0.1531166665537395</v>
+        <v>0.7631890669640695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.110573644669067</v>
+        <v>0.5850973333333334</v>
       </c>
       <c r="N5">
-        <v>0.110573644669067</v>
+        <v>1.755292</v>
       </c>
       <c r="O5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="P5">
-        <v>0.002912152920229241</v>
+        <v>0.01257829852745884</v>
       </c>
       <c r="Q5">
-        <v>1.99981032627319</v>
+        <v>56.80675566603644</v>
       </c>
       <c r="R5">
-        <v>1.99981032627319</v>
+        <v>511.260800994328</v>
       </c>
       <c r="S5">
-        <v>0.0004458991476402395</v>
+        <v>0.009599619917166839</v>
       </c>
       <c r="T5">
-        <v>0.0004458991476402395</v>
+        <v>0.009599619917166841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.72643865668461</v>
+        <v>19.002885</v>
       </c>
       <c r="H6">
-        <v>5.72643865668461</v>
+        <v>57.008655</v>
       </c>
       <c r="I6">
-        <v>0.04848081328524499</v>
+        <v>0.1493756515114056</v>
       </c>
       <c r="J6">
-        <v>0.04848081328524499</v>
+        <v>0.1493756515114056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.8591510565883</v>
+        <v>45.931316</v>
       </c>
       <c r="N6">
-        <v>37.8591510565883</v>
+        <v>137.793948</v>
       </c>
       <c r="O6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725413</v>
       </c>
       <c r="P6">
-        <v>0.9970878470797707</v>
+        <v>0.9874217014725412</v>
       </c>
       <c r="Q6">
-        <v>216.7981061197092</v>
+        <v>872.82751584666</v>
       </c>
       <c r="R6">
-        <v>216.7981061197092</v>
+        <v>7855.44764261994</v>
       </c>
       <c r="S6">
-        <v>0.04833962974326127</v>
+        <v>0.1474967599739615</v>
       </c>
       <c r="T6">
-        <v>0.04833962974326127</v>
+        <v>0.1474967599739615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>19.002885</v>
+      </c>
+      <c r="H7">
+        <v>57.008655</v>
+      </c>
+      <c r="I7">
+        <v>0.1493756515114056</v>
+      </c>
+      <c r="J7">
+        <v>0.1493756515114056</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5850973333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.755292</v>
+      </c>
+      <c r="O7">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="P7">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="Q7">
+        <v>11.11853733914</v>
+      </c>
+      <c r="R7">
+        <v>100.06683605226</v>
+      </c>
+      <c r="S7">
+        <v>0.001878891537444118</v>
+      </c>
+      <c r="T7">
+        <v>0.001878891537444118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.72643865668461</v>
-      </c>
-      <c r="H7">
-        <v>5.72643865668461</v>
-      </c>
-      <c r="I7">
-        <v>0.04848081328524499</v>
-      </c>
-      <c r="J7">
-        <v>0.04848081328524499</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.110573644669067</v>
-      </c>
-      <c r="N7">
-        <v>0.110573644669067</v>
-      </c>
-      <c r="O7">
-        <v>0.002912152920229241</v>
-      </c>
-      <c r="P7">
-        <v>0.002912152920229241</v>
-      </c>
-      <c r="Q7">
-        <v>0.6331931932434534</v>
-      </c>
-      <c r="R7">
-        <v>0.6331931932434534</v>
-      </c>
-      <c r="S7">
-        <v>0.0001411835419837148</v>
-      </c>
-      <c r="T7">
-        <v>0.0001411835419837148</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.43813466666667</v>
+      </c>
+      <c r="H8">
+        <v>31.314404</v>
+      </c>
+      <c r="I8">
+        <v>0.0820508657710196</v>
+      </c>
+      <c r="J8">
+        <v>0.0820508657710196</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>45.931316</v>
+      </c>
+      <c r="N8">
+        <v>137.793948</v>
+      </c>
+      <c r="O8">
+        <v>0.9874217014725413</v>
+      </c>
+      <c r="P8">
+        <v>0.9874217014725412</v>
+      </c>
+      <c r="Q8">
+        <v>479.4372618252214</v>
+      </c>
+      <c r="R8">
+        <v>4314.935356426992</v>
+      </c>
+      <c r="S8">
+        <v>0.08101880548691527</v>
+      </c>
+      <c r="T8">
+        <v>0.08101880548691526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.43813466666667</v>
+      </c>
+      <c r="H9">
+        <v>31.314404</v>
+      </c>
+      <c r="I9">
+        <v>0.0820508657710196</v>
+      </c>
+      <c r="J9">
+        <v>0.0820508657710196</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5850973333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.755292</v>
+      </c>
+      <c r="O9">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="P9">
+        <v>0.01257829852745884</v>
+      </c>
+      <c r="Q9">
+        <v>6.107324758440889</v>
+      </c>
+      <c r="R9">
+        <v>54.965922825968</v>
+      </c>
+      <c r="S9">
+        <v>0.001032060284104339</v>
+      </c>
+      <c r="T9">
+        <v>0.001032060284104339</v>
       </c>
     </row>
   </sheetData>
